--- a/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_24.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI EM_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI EM_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI EM_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI EM_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI EM_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI EM_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI EM_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI EM_두바이유가</t>
   </si>
   <si>
-    <t>MSCI EM_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI EM_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI EM_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI EM_미국 REER</t>
   </si>
   <si>
-    <t>MSCI EM_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI EM_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI EM_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI EM_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI EM_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI EM_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI EM_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI EM_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI EM_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI EM_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI EM_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 REER</t>
   </si>
   <si>
-    <t>MSCI EM_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI EM_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI EM_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI EM_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,915 +1893,765 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -2894,154 +2669,154 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
+      <c r="AL3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="AM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
       <c r="BC3" t="n">
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
         <v>3</v>
@@ -3050,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
         <v>3</v>
@@ -3065,49 +2840,49 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU3" t="n">
         <v>3</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX3" t="n">
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
@@ -3116,244 +2891,244 @@
         <v>3</v>
       </c>
       <c r="CD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
         <v>2</v>
       </c>
-      <c r="CE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CH3" t="n">
+      <c r="CP3" t="n">
         <v>2</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB3" t="n">
         <v>2</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
         <v>2</v>
       </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>3</v>
-      </c>
       <c r="DE3" t="n">
         <v>3</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK3" t="n">
         <v>2</v>
       </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
         <v>2</v>
       </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>3</v>
-      </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>3</v>
       </c>
       <c r="EK3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
         <v>3</v>
       </c>
       <c r="EO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="ET3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
       <c r="EW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>3</v>
       </c>
       <c r="EY3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
         <v>3</v>
       </c>
       <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
         <v>2</v>
       </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
       <c r="FC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
         <v>3</v>
       </c>
       <c r="FE3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF3" t="n">
         <v>3</v>
@@ -3362,91 +3137,91 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
         <v>3</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FN3" t="n">
         <v>3</v>
       </c>
       <c r="FO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FQ3" t="n">
         <v>3</v>
       </c>
       <c r="FR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>1</v>
-      </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GD3" t="n">
         <v>2</v>
       </c>
-      <c r="GA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>3</v>
-      </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GF3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GI3" t="n">
         <v>0</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GK3" t="n">
         <v>0</v>
@@ -3455,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="GM3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GN3" t="n">
         <v>3</v>
@@ -3464,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="GP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GQ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GR3" t="n">
         <v>0</v>
@@ -3476,1053 +3251,903 @@
         <v>3</v>
       </c>
       <c r="GT3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GV3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GW3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GY3" t="n">
         <v>3</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HA3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
         <v>2</v>
       </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
         <v>2</v>
       </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
       <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
         <v>2</v>
       </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP3" t="n">
         <v>2</v>
       </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9248807831410671</v>
+        <v>-0.9144655650490681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9207784017153465</v>
+        <v>0.8857316467472334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9343360800988781</v>
+        <v>0.8272963990342926</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8381133658498278</v>
+        <v>0.7200797033597922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5886364017295084</v>
+        <v>0.3717009625756589</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5893774378016852</v>
+        <v>-0.83780089076711</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9682938792994781</v>
+        <v>0.8652941628615594</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9420167099910076</v>
+        <v>0.8621005967487541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9435076473071203</v>
+        <v>0.4353132545818083</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9692270205959486</v>
+        <v>-0.1874185130844338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9590557301957294</v>
+        <v>-0.3663451681086634</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8745158890643204</v>
+        <v>0.9083330172200934</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9596005711522657</v>
+        <v>-0.7759473023587418</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8964514209353147</v>
+        <v>0.9297705053011635</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3675406728003671</v>
+        <v>0.9452679320683622</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4942641972650542</v>
+        <v>0.8903793887221431</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8181605195329996</v>
+        <v>0.4544881866462145</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9477368473796811</v>
+        <v>0.562247260979988</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8324886189621425</v>
+        <v>-0.4325671663902081</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9475759099790722</v>
+        <v>0.8252200211394768</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9524362598654151</v>
+        <v>0.5303200381949301</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8806895993344488</v>
+        <v>0.905536936067959</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4531287951366082</v>
+        <v>0.8039768305706226</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5897379600383335</v>
+        <v>-0.3509559118395906</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6391142293473245</v>
+        <v>0.8536457689855718</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8681045118881924</v>
+        <v>0.6496074705446635</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8072841754367561</v>
+        <v>0.8526592705790823</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9348689931305454</v>
+        <v>0.5031949106125572</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.854273336562189</v>
+        <v>0.8852362622190925</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.2336297291934501</v>
+        <v>0.7052598740453249</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9132554897689334</v>
+        <v>0.7249970370420042</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6601511231746811</v>
+        <v>0.5688045298108807</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8737730014655337</v>
+        <v>0.4877484019900683</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5944007276757146</v>
+        <v>0.945691819859022</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9204163048498606</v>
+        <v>-0.2320301344352876</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7308219966246828</v>
+        <v>0.9180469448522058</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7025873058823469</v>
+        <v>-0.2256306666198692</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7535158809555423</v>
+        <v>-0.839050521673262</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.3773231332773541</v>
+        <v>-0.7776498054380968</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9608544659701208</v>
+        <v>0.9024382204798193</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.4150221670262261</v>
+        <v>-0.1401110957749004</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9283143995176918</v>
+        <v>-0.7717475289926825</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3646659587909623</v>
+        <v>-0.5123799491720219</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.8029179285914066</v>
+        <v>0.9909853341146576</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7608957396151053</v>
+        <v>0.9660504664770539</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9344487405213344</v>
+        <v>0.9433735636609349</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1292364389447196</v>
+        <v>0.9847589874008468</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8242779839013915</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6180366364352408</v>
+        <v>0.9936189333474758</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9965160668281988</v>
+        <v>0.9530820829672507</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9893159298741596</v>
+        <v>0.9366311746304753</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9737562821502709</v>
+        <v>0.9816566513512164</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9944090286955098</v>
+        <v>0.9064229348534786</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.8034780902819095</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9977863443386108</v>
+        <v>0.7552810649873594</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9850135691343059</v>
+        <v>0.4053159292800182</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9707235552625952</v>
+        <v>0.7847159219293932</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9811524713329784</v>
+        <v>-0.627011845609509</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9390407393004966</v>
+        <v>0.6862813370122336</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9389088497513733</v>
+        <v>-0.2577564142236933</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.8135485681582943</v>
+        <v>0.8431697900874445</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.5759645555149682</v>
+        <v>0.7844180335183327</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.5413013260596194</v>
+        <v>-0.4907256333537097</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8767516291106806</v>
+        <v>-0.7533744768063456</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8313828956186898</v>
+        <v>0.9286060216129866</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9627196455403231</v>
+        <v>0.7849696118856403</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.5722331138738677</v>
+        <v>0.9185669641541307</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7775171176874225</v>
+        <v>0.3828146642912587</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.3084839505675113</v>
+        <v>0.8929993902062311</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8425478857219129</v>
+        <v>0.9061763946474102</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8630874886642961</v>
+        <v>0.5838403650987246</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.4330557261850287</v>
+        <v>0.946206214852515</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.7664295094370684</v>
+        <v>0.9181781818104624</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.977717295693335</v>
+        <v>0.9251906338086116</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.910966987754829</v>
+        <v>-0.7509292412362744</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9549327671586249</v>
+        <v>-0.6915434728063575</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7960492391666907</v>
+        <v>0.7219466790808113</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.980651571367506</v>
+        <v>0.9238526991698746</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9245850476665964</v>
+        <v>0.8388157732347321</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.8327185379404861</v>
+        <v>0.8535717687156915</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9525011628240134</v>
+        <v>0.4557780664457264</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.9300837420098271</v>
+        <v>0.5561872136165229</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.9333669549011887</v>
+        <v>0.9316288185973451</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.9023832887359616</v>
+        <v>-0.3052716188071196</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.7270752293328311</v>
+        <v>0.6543284646098034</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.7518512077665024</v>
+        <v>0.5176140301717513</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9452562433435648</v>
+        <v>-0.4410839178095599</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8920824597224145</v>
+        <v>0.666257765088911</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8740861941791188</v>
+        <v>-0.4613924359532228</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.5618326187952827</v>
+        <v>0.5476562051668739</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7199686183630157</v>
+        <v>0.8746892079913826</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.837351546033234</v>
+        <v>-0.3643516666694679</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.783731905035816</v>
+        <v>0.8860621226384421</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7525609596430949</v>
+        <v>0.8631767239000021</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6886973913657887</v>
+        <v>-0.3421009668263177</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.2833265705054114</v>
+        <v>0.9071019371516753</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.7054187678662092</v>
+        <v>0.6425542390036317</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.1498632985146061</v>
+        <v>0.8014364897673442</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.7113451980777556</v>
+        <v>0.7929323793848104</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9792887885131378</v>
+        <v>0.8516984324846855</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.2383953182442638</v>
+        <v>0.7809987430044364</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.9275789016636304</v>
+        <v>-0.8986251179314949</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9788748283764087</v>
+        <v>0.7179731548978792</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3210974080952455</v>
+        <v>0.7803123880305374</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9306219114457611</v>
+        <v>0.9148623382123207</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.4304506198706303</v>
+        <v>0.551991008971645</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8605717641608476</v>
+        <v>0.6390153269895905</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8422414056420454</v>
+        <v>0.7267402927939046</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.868347842767359</v>
+        <v>0.3570588070453537</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9489943700963974</v>
+        <v>0.7190796651676205</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.7131321561448883</v>
+        <v>-0.194035722238837</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7530569491701969</v>
+        <v>0.5658688090279232</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.7759405078197448</v>
+        <v>-0.8405656592438875</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.936593040645457</v>
+        <v>0.2762437309723312</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.4928686754192267</v>
+        <v>-0.6339499371176799</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.724381901529318</v>
+        <v>-0.9244907475336785</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7203115987689335</v>
+        <v>0.6872050679404782</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1393375550046068</v>
+        <v>0.3414402127818723</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8442108674323816</v>
+        <v>-0.7114953518431139</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8124361886692382</v>
+        <v>0.8746892079913826</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.7667243541095993</v>
+        <v>0.878080965576625</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2425046413739204</v>
+        <v>0.9414567119584132</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.6586767425203958</v>
+        <v>0.6709134625385974</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.8756799529132192</v>
+        <v>0.7930935148777214</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3687263122905465</v>
+        <v>0.5438342071578663</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.4695385312702416</v>
+        <v>0.8907725670674279</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.9424290846289166</v>
+        <v>-0.960105870243659</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7759755086232724</v>
+        <v>0.9020395517276111</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9300655796994763</v>
+        <v>0.7420247281084923</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3168647099653124</v>
+        <v>0.9400714234658021</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.6544957735730422</v>
+        <v>0.8666643907331475</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9482256237982394</v>
+        <v>0.366669138693879</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9792887885131378</v>
+        <v>-0.7155553912952293</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9728795252151886</v>
+        <v>-0.4363801242544623</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9671830925363823</v>
+        <v>0.1299345019865595</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.719936679698951</v>
+        <v>0.7843353203978899</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9237322982227233</v>
+        <v>0.8879158333482036</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.4901157618454918</v>
+        <v>0.6619427447416993</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9665745943861613</v>
+        <v>0.76663883473766</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9627736020054595</v>
+        <v>0.8713634271834925</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9835446568938649</v>
+        <v>0.7923932614212059</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7336975053890338</v>
+        <v>0.6815869403723178</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9655140596977561</v>
+        <v>0.7454335638634744</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9124376936425277</v>
+        <v>-0.8902116110011352</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.4882487592837894</v>
+        <v>0.85415903670237</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.808343444559996</v>
+        <v>0.1345833097345289</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.737218413827051</v>
+        <v>0.7952411021801359</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1099388023481376</v>
+        <v>-0.8462240705582088</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.9392507738988339</v>
+        <v>-0.7960563807285883</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.947210049841556</v>
+        <v>-0.9090218208904632</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.6552705400497361</v>
+        <v>0.6557565670945271</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8103938974097099</v>
+        <v>0.6871312570553104</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9134568197691196</v>
+        <v>0.7915414316906405</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8155482618796346</v>
+        <v>-0.4595241701006185</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.7733925474859989</v>
+        <v>0.8133509835332687</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8355222045321826</v>
+        <v>0.6680204379717223</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9371608161577711</v>
+        <v>-0.7806068953180391</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9695811219244277</v>
+        <v>-0.1874185130844338</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1213999315118383</v>
+        <v>0.8902589785587999</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.909402332802564</v>
+        <v>0.7791536668434612</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.845009947469135</v>
+        <v>0.2995706387146056</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.911256579756698</v>
+        <v>-0.6908253548612958</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9164444894652299</v>
+        <v>0.6988320960215413</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7237811387039672</v>
+        <v>0.3297592080400189</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.772948650061667</v>
+        <v>0.2864003183061438</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8551927060115403</v>
+        <v>-0.4725235735785805</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9675409907027248</v>
+        <v>0.269333083828651</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.4895728304794645</v>
+        <v>0.9388190244894146</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.856529992296724</v>
+        <v>0.8816662720091457</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.79947151521329</v>
+        <v>-0.7212276457907547</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.8600968017498127</v>
+        <v>-0.9069062342233074</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.4942641972650542</v>
+        <v>0.7962406432003116</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9236658787562161</v>
+        <v>0.50317586105677</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.8606543928957869</v>
+        <v>-0.3795682065607224</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.4478224891343555</v>
+        <v>0.8309765701884871</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.6275630167586146</v>
+        <v>0.9388190244894146</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.7919422184094105</v>
+        <v>0.713447266955723</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.1025765935849163</v>
+        <v>0.7402470662487737</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.2492024020609213</v>
+        <v>0.779382258718895</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4377544199670128</v>
+        <v>-0.3497963032246423</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.9178741463729789</v>
+        <v>-0.2698690842591275</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.7565190994437674</v>
+        <v>-0.881042522565047</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.340384374118294</v>
+        <v>0.5403805179418312</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9687081656030475</v>
+        <v>0.6898475563972277</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.8828757401745874</v>
+        <v>-0.2304254089629551</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.6061651488547445</v>
+        <v>0.9204056614054421</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8800799752778261</v>
+        <v>0.8793067169642367</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.895378271435557</v>
+        <v>0.5142191039571844</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.5205143376758755</v>
+        <v>0.9087082204018204</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.932328912382518</v>
+        <v>-0.6048849069450282</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6963185381693771</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7743689843938637</v>
+        <v>0.1213852717816538</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9687081656030475</v>
+        <v>0.1458341436749355</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.6899601775745724</v>
+        <v>0.9379141483060217</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8880222964792064</v>
+        <v>0.7918707268190331</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.7229242199218656</v>
+        <v>0.4178079153273767</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.8528006578189812</v>
+        <v>-0.2861827134270112</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.6607735984541233</v>
+        <v>0</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.3387240679943392</v>
+        <v>0</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.8904616526055381</v>
+        <v>0.5919971182914754</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.7327212544798594</v>
+        <v>0.6593660044663453</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.8104227813199494</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.7706935509743866</v>
+        <v>0.2379601667627362</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7058570043485007</v>
+        <v>0.2291202942911971</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.368072501436589</v>
+        <v>0.4040389834495634</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9175685479944741</v>
+        <v>0.5019262149637941</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.9315001528467474</v>
+        <v>-0.3396652237874156</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.420879273759057</v>
+        <v>0.6865885026037456</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.9179068270758952</v>
+        <v>0.3975274552022424</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7218525495760389</v>
+        <v>-0.3487478738167212</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.8175464014164652</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.4127186498276102</v>
+        <v>0.4387682853001272</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.2460113596734683</v>
+        <v>-0.5847032859203738</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9380333595242447</v>
+        <v>0.6611242479117283</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.9067771939862053</v>
+        <v>0.9100567020316086</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.8668512224253855</v>
+        <v>-0.8506099946718135</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.637531567507671</v>
+        <v>-0.2493263334034597</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.5730781737286645</v>
+        <v>0.7599838101836511</v>
       </c>
       <c r="HL4" t="n">
-        <v>0</v>
+        <v>0.7277625981729202</v>
       </c>
       <c r="HM4" t="n">
-        <v>0</v>
+        <v>0.7073599228015887</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7011458847794791</v>
+        <v>-0.1524078151507778</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7396297063397131</v>
+        <v>-0.1549710004722616</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.5095650592082717</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.2815312880394399</v>
+        <v>-0.0378326820280006</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4039710190048992</v>
+        <v>-0.69357404120515</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4713701666449417</v>
+        <v>0.8893402561536319</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.6874399661166212</v>
+        <v>-0.3781778719253743</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.4633674548570081</v>
+        <v>0.5424022450852967</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9006365981095638</v>
+        <v>0.359574170844874</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9254507457750994</v>
+        <v>0.6251387435102198</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.9419437516723987</v>
+        <v>0.6056335135260446</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.3794962664166954</v>
+        <v>0.5286326230833317</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8230364864293961</v>
+        <v>-0.4930444604841121</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.5922970834659532</v>
+        <v>-0.5865704633113542</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.3891239191809505</v>
+        <v>-0.1692855773501677</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.7545004006024544</v>
+        <v>-0.7759696855011459</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.6631033942231637</v>
+        <v>-0.8667988699201219</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.394938448297515</v>
+        <v>0.8230324994547226</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.7869432981333254</v>
+        <v>-0.1749169503762153</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9644275699083417</v>
+        <v>-0.8595467240265412</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.8293947204747498</v>
+        <v>-0.6831982714032883</v>
       </c>
       <c r="II4" t="n">
-        <v>0.457432739974781</v>
+        <v>0.8230324994547226</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0.4273020406517227</v>
+        <v>0.6882694306189724</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.531466620037964</v>
+        <v>-0.2665555614099488</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.8025973837974022</v>
+        <v>0.3064721889782901</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.2213662646543579</v>
+        <v>-0.604661095891054</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1807303737823072</v>
+        <v>-0.822501439226874</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.5440212561587229</v>
+        <v>0.9672721868748362</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.217789481661949</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.7941351730302402</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9590619481481136</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4022765628820348</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.7001357590189214</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5413674707934564</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.7392148559234535</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.7580172685575184</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7099922224344918</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.6003989056887374</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.6017826613579663</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1035913391144836</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.7417365315302104</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.8658609409027734</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.8350782773246896</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2465699417133313</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8902885003868445</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.6477878371879469</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.8350782773246896</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.7958365090544425</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4346839992202456</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3631320452712153</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>-0.4346042071581583</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.7829124830819573</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9761954347945518</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.906002761618543</v>
+        <v>0.8039812232875265</v>
       </c>
     </row>
   </sheetData>
